--- a/data/pca/factorExposure/factorExposure_2009-05-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01692338048318854</v>
+        <v>-0.01679432220138847</v>
       </c>
       <c r="C2">
-        <v>-0.001945683352481973</v>
+        <v>0.001252260032468411</v>
       </c>
       <c r="D2">
-        <v>-0.008030819601149587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008837217107504944</v>
+      </c>
+      <c r="E2">
+        <v>0.00167489062250859</v>
+      </c>
+      <c r="F2">
+        <v>-0.0146213754161533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08765492794491646</v>
+        <v>-0.0908685226614432</v>
       </c>
       <c r="C4">
-        <v>-0.02047092345119886</v>
+        <v>0.01573142758762814</v>
       </c>
       <c r="D4">
-        <v>-0.08050304043496687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08395718367387044</v>
+      </c>
+      <c r="E4">
+        <v>0.02852920036384975</v>
+      </c>
+      <c r="F4">
+        <v>0.03308994114242975</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-3.442585987804242e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-6.587809288023002e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0001910383771745603</v>
+      </c>
+      <c r="E5">
+        <v>0.000110053879289337</v>
+      </c>
+      <c r="F5">
+        <v>-5.938135196690424e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1565104390238038</v>
+        <v>-0.1643953081648484</v>
       </c>
       <c r="C6">
-        <v>-0.0339418499738654</v>
+        <v>0.03235364249197278</v>
       </c>
       <c r="D6">
-        <v>0.02952891213652525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02038111754685232</v>
+      </c>
+      <c r="E6">
+        <v>0.01115517603297488</v>
+      </c>
+      <c r="F6">
+        <v>0.04265348057900605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05699020191870524</v>
+        <v>-0.06009310543340444</v>
       </c>
       <c r="C7">
-        <v>-0.001836114060640143</v>
+        <v>-0.001527545175098601</v>
       </c>
       <c r="D7">
-        <v>-0.04647820659264351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05246476991328777</v>
+      </c>
+      <c r="E7">
+        <v>0.01290339179123668</v>
+      </c>
+      <c r="F7">
+        <v>0.04843254214783735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05967552821047241</v>
+        <v>-0.05579664332573897</v>
       </c>
       <c r="C8">
-        <v>0.009622903667884685</v>
+        <v>-0.01185815842493398</v>
       </c>
       <c r="D8">
-        <v>-0.02515239810034624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03019991456428081</v>
+      </c>
+      <c r="E8">
+        <v>0.01724444211292528</v>
+      </c>
+      <c r="F8">
+        <v>-0.02890540577097628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06840121378577936</v>
+        <v>-0.07073397952422107</v>
       </c>
       <c r="C9">
-        <v>-0.01625176729235408</v>
+        <v>0.01119578271042432</v>
       </c>
       <c r="D9">
-        <v>-0.08369020431515524</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08736750081768449</v>
+      </c>
+      <c r="E9">
+        <v>0.02489234683089873</v>
+      </c>
+      <c r="F9">
+        <v>0.04944321793427259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.0875847043097237</v>
+        <v>-0.08782853407000181</v>
       </c>
       <c r="C10">
-        <v>-0.0192675582006173</v>
+        <v>0.02340094061601514</v>
       </c>
       <c r="D10">
-        <v>0.1686348848318175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1588220959836369</v>
+      </c>
+      <c r="E10">
+        <v>-0.03254314759275313</v>
+      </c>
+      <c r="F10">
+        <v>-0.05846724639922096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08845490761719522</v>
+        <v>-0.08542908070822677</v>
       </c>
       <c r="C11">
-        <v>-0.01750486316725761</v>
+        <v>0.01205138106174396</v>
       </c>
       <c r="D11">
-        <v>-0.1146328428884618</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1198327875316095</v>
+      </c>
+      <c r="E11">
+        <v>0.05099364451441293</v>
+      </c>
+      <c r="F11">
+        <v>0.02504174821164298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.0959762723677432</v>
+        <v>-0.09012474130975313</v>
       </c>
       <c r="C12">
-        <v>-0.01628034080745294</v>
+        <v>0.009955074891820778</v>
       </c>
       <c r="D12">
-        <v>-0.1211562478226124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1352928402561907</v>
+      </c>
+      <c r="E12">
+        <v>0.05381453790582463</v>
+      </c>
+      <c r="F12">
+        <v>0.03102574291113928</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04506817872066313</v>
+        <v>-0.04445271461100312</v>
       </c>
       <c r="C13">
-        <v>-0.00710782672396692</v>
+        <v>0.003532418655444157</v>
       </c>
       <c r="D13">
-        <v>-0.0486290785526407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05524802504380075</v>
+      </c>
+      <c r="E13">
+        <v>0.00124943930375007</v>
+      </c>
+      <c r="F13">
+        <v>0.005309268286468436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01862088858354309</v>
+        <v>-0.0221230844289702</v>
       </c>
       <c r="C14">
-        <v>-0.01489792133581179</v>
+        <v>0.01368478385149994</v>
       </c>
       <c r="D14">
-        <v>-0.03227736072093739</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03353862637843129</v>
+      </c>
+      <c r="E14">
+        <v>0.02148623216268736</v>
+      </c>
+      <c r="F14">
+        <v>0.01272656030489415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.0347247574281992</v>
+        <v>-0.03485281809451412</v>
       </c>
       <c r="C15">
-        <v>-0.008115829469104417</v>
+        <v>0.006261709505088782</v>
       </c>
       <c r="D15">
-        <v>-0.04807568325720143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04771059128749561</v>
+      </c>
+      <c r="E15">
+        <v>0.007700298582150907</v>
+      </c>
+      <c r="F15">
+        <v>0.02964527565084316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07184941192462885</v>
+        <v>-0.0698681563321648</v>
       </c>
       <c r="C16">
-        <v>-0.007137023336159736</v>
+        <v>0.001547047872308162</v>
       </c>
       <c r="D16">
-        <v>-0.1170977459644588</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1300876559330963</v>
+      </c>
+      <c r="E16">
+        <v>0.06552090330866291</v>
+      </c>
+      <c r="F16">
+        <v>0.02733007569856391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.001481487478063467</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0004284471205616208</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002392951706230246</v>
+      </c>
+      <c r="E17">
+        <v>0.001928728995315422</v>
+      </c>
+      <c r="F17">
+        <v>-0.001866321128009854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.0259586909085332</v>
+        <v>-0.04438408105923521</v>
       </c>
       <c r="C18">
-        <v>0.001254492884419185</v>
+        <v>-0.0009714965069486596</v>
       </c>
       <c r="D18">
-        <v>-0.02340624791118439</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01826546027585085</v>
+      </c>
+      <c r="E18">
+        <v>-0.004711042545831371</v>
+      </c>
+      <c r="F18">
+        <v>-0.009104045650448282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06392827090550794</v>
+        <v>-0.06269920259894766</v>
       </c>
       <c r="C20">
-        <v>-0.006068353864222707</v>
+        <v>0.002118731103209402</v>
       </c>
       <c r="D20">
-        <v>-0.07441728996231115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0795700696573932</v>
+      </c>
+      <c r="E20">
+        <v>0.06226943375634095</v>
+      </c>
+      <c r="F20">
+        <v>0.02958824908016564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.0406897574440016</v>
+        <v>-0.04307197656750826</v>
       </c>
       <c r="C21">
-        <v>-0.01040635262543849</v>
+        <v>0.007720645551785261</v>
       </c>
       <c r="D21">
-        <v>-0.03648870161911025</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03716027293555579</v>
+      </c>
+      <c r="E21">
+        <v>0.003381658039433727</v>
+      </c>
+      <c r="F21">
+        <v>-0.0240476436247446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04087394287992047</v>
+        <v>-0.0426668920432122</v>
       </c>
       <c r="C22">
-        <v>-0.001764713939072736</v>
+        <v>0.001294399625480573</v>
       </c>
       <c r="D22">
-        <v>-0.003386119769996981</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.009900471582344701</v>
+      </c>
+      <c r="E22">
+        <v>0.03460658390994292</v>
+      </c>
+      <c r="F22">
+        <v>-0.05329723102910844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04083632005388237</v>
+        <v>-0.04263541770839792</v>
       </c>
       <c r="C23">
-        <v>-0.001751929864653133</v>
+        <v>0.001282257476561739</v>
       </c>
       <c r="D23">
-        <v>-0.003404805023207011</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.009914452026701265</v>
+      </c>
+      <c r="E23">
+        <v>0.03463504821203123</v>
+      </c>
+      <c r="F23">
+        <v>-0.05335323938832281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07959232050327926</v>
+        <v>-0.07613136422596131</v>
       </c>
       <c r="C24">
-        <v>-0.008074342731610241</v>
+        <v>0.002520570377367002</v>
       </c>
       <c r="D24">
-        <v>-0.1187225168904781</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1236452198058276</v>
+      </c>
+      <c r="E24">
+        <v>0.05006259132609782</v>
+      </c>
+      <c r="F24">
+        <v>0.03127701206116159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.0842304198170058</v>
+        <v>-0.08091351947579119</v>
       </c>
       <c r="C25">
-        <v>-0.01040765072566782</v>
+        <v>0.005422412839268442</v>
       </c>
       <c r="D25">
-        <v>-0.1058195986964854</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1111729909669831</v>
+      </c>
+      <c r="E25">
+        <v>0.03545772228547454</v>
+      </c>
+      <c r="F25">
+        <v>0.0279362793415259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05750010182883388</v>
+        <v>-0.0612512059618666</v>
       </c>
       <c r="C26">
-        <v>-0.01872743904284978</v>
+        <v>0.01543754027996711</v>
       </c>
       <c r="D26">
-        <v>-0.04047772666173544</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04907838846167974</v>
+      </c>
+      <c r="E26">
+        <v>0.02955379664539205</v>
+      </c>
+      <c r="F26">
+        <v>-0.005403796724172593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1396317214039679</v>
+        <v>-0.1475228329681515</v>
       </c>
       <c r="C28">
-        <v>-0.02017151916328972</v>
+        <v>0.02724359613921681</v>
       </c>
       <c r="D28">
-        <v>0.2606341720975529</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2559318782954677</v>
+      </c>
+      <c r="E28">
+        <v>-0.06364855100003386</v>
+      </c>
+      <c r="F28">
+        <v>0.004466738170659091</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02545099375310409</v>
+        <v>-0.02787684466677952</v>
       </c>
       <c r="C29">
-        <v>-0.009696866593107163</v>
+        <v>0.009007648378182864</v>
       </c>
       <c r="D29">
-        <v>-0.03010199311060208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03037208753576694</v>
+      </c>
+      <c r="E29">
+        <v>0.01743925297582957</v>
+      </c>
+      <c r="F29">
+        <v>-0.01489855695255926</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05669499392888221</v>
+        <v>-0.05421726416570417</v>
       </c>
       <c r="C30">
-        <v>-0.007725104100342653</v>
+        <v>0.00275092991518156</v>
       </c>
       <c r="D30">
-        <v>-0.07856571268402776</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08705497550043907</v>
+      </c>
+      <c r="E30">
+        <v>0.01391553976981785</v>
+      </c>
+      <c r="F30">
+        <v>0.08218961849110119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0508487738164113</v>
+        <v>-0.05133326563563066</v>
       </c>
       <c r="C31">
-        <v>-0.01834737111464671</v>
+        <v>0.01672844736272462</v>
       </c>
       <c r="D31">
-        <v>-0.02349540014781385</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02652995119040438</v>
+      </c>
+      <c r="E31">
+        <v>0.02830843202974621</v>
+      </c>
+      <c r="F31">
+        <v>-0.001023821600607575</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04679300895972612</v>
+        <v>-0.05119244653730907</v>
       </c>
       <c r="C32">
-        <v>-0.002663534524405733</v>
+        <v>-0.0008988827556311628</v>
       </c>
       <c r="D32">
-        <v>-0.03080319138377543</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03559081792376112</v>
+      </c>
+      <c r="E32">
+        <v>0.03119326600384245</v>
+      </c>
+      <c r="F32">
+        <v>0.001588969297886044</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08847427736047028</v>
+        <v>-0.08886827638265679</v>
       </c>
       <c r="C33">
-        <v>-0.01395145770222824</v>
+        <v>0.008032856276263118</v>
       </c>
       <c r="D33">
-        <v>-0.09299015289396399</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1053604942971526</v>
+      </c>
+      <c r="E33">
+        <v>0.05088172942528568</v>
+      </c>
+      <c r="F33">
+        <v>0.0435618209865094</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06767434201402135</v>
+        <v>-0.06603980891706669</v>
       </c>
       <c r="C34">
-        <v>-0.01594786506372885</v>
+        <v>0.01094916297597288</v>
       </c>
       <c r="D34">
-        <v>-0.1000441370317144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1119516640494636</v>
+      </c>
+      <c r="E34">
+        <v>0.03891323534680335</v>
+      </c>
+      <c r="F34">
+        <v>0.03622848262000669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02631687623508854</v>
+        <v>-0.02764445826856753</v>
       </c>
       <c r="C35">
-        <v>-0.004474465416153158</v>
+        <v>0.003913679644625115</v>
       </c>
       <c r="D35">
-        <v>-0.008263630877482466</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01146251682395785</v>
+      </c>
+      <c r="E35">
+        <v>0.01738502339924775</v>
+      </c>
+      <c r="F35">
+        <v>-0.0005629052858179865</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0236792588515053</v>
+        <v>-0.02821918602979881</v>
       </c>
       <c r="C36">
-        <v>-0.00861408907636753</v>
+        <v>0.007368766501133705</v>
       </c>
       <c r="D36">
-        <v>-0.03943845033742602</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04066581957869137</v>
+      </c>
+      <c r="E36">
+        <v>0.01844535337214292</v>
+      </c>
+      <c r="F36">
+        <v>0.01549442623932058</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.002487283393022823</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007454411560492449</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003118488730233165</v>
+      </c>
+      <c r="E37">
+        <v>0.0004870635519329273</v>
+      </c>
+      <c r="F37">
+        <v>-0.001317273895108314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.107193356528348</v>
+        <v>-0.09675343965590462</v>
       </c>
       <c r="C39">
-        <v>-0.02326130593915973</v>
+        <v>0.01649975663242224</v>
       </c>
       <c r="D39">
-        <v>-0.1518152209431798</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1530516370728315</v>
+      </c>
+      <c r="E39">
+        <v>0.0657346129335513</v>
+      </c>
+      <c r="F39">
+        <v>0.02101736556056006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04047775615557143</v>
+        <v>-0.04590052309809834</v>
       </c>
       <c r="C40">
-        <v>-0.01052640308090872</v>
+        <v>0.009290357417015026</v>
       </c>
       <c r="D40">
-        <v>-0.02667071097751784</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03326600550628315</v>
+      </c>
+      <c r="E40">
+        <v>-0.0001473411905021304</v>
+      </c>
+      <c r="F40">
+        <v>-0.01473103007705959</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02520678616626406</v>
+        <v>-0.02777853030357041</v>
       </c>
       <c r="C41">
-        <v>-0.008051034588454872</v>
+        <v>0.00731723609132399</v>
       </c>
       <c r="D41">
-        <v>-0.008941168931610823</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01082894226742488</v>
+      </c>
+      <c r="E41">
+        <v>0.01285106711207763</v>
+      </c>
+      <c r="F41">
+        <v>-0.006859986418242128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04121104092584012</v>
+        <v>-0.03980831656518937</v>
       </c>
       <c r="C43">
-        <v>-0.008811712213578134</v>
+        <v>0.008052550778218677</v>
       </c>
       <c r="D43">
-        <v>-0.01932700685328436</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02124721131934383</v>
+      </c>
+      <c r="E43">
+        <v>0.02716920758439504</v>
+      </c>
+      <c r="F43">
+        <v>-0.01536518608760899</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.05958830269332837</v>
+        <v>-0.07136433534455873</v>
       </c>
       <c r="C44">
-        <v>-0.02207109556866074</v>
+        <v>0.0185089711805949</v>
       </c>
       <c r="D44">
-        <v>-0.09029355503271914</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08873349279858295</v>
+      </c>
+      <c r="E44">
+        <v>0.05888080619483485</v>
+      </c>
+      <c r="F44">
+        <v>0.1676022635142091</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-3.069855335089367e-05</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-1.467650586623821e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-8.043310580751517e-06</v>
+      </c>
+      <c r="E45">
+        <v>-6.046664284772787e-05</v>
+      </c>
+      <c r="F45">
+        <v>-4.705568171796181e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02047675345342575</v>
+        <v>-0.02411573247233157</v>
       </c>
       <c r="C46">
-        <v>-0.004596096552228372</v>
+        <v>0.003604741680073387</v>
       </c>
       <c r="D46">
-        <v>-0.01105462142096914</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01434067496606576</v>
+      </c>
+      <c r="E46">
+        <v>0.03239200411981746</v>
+      </c>
+      <c r="F46">
+        <v>-0.005465726541670369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05391758373981783</v>
+        <v>-0.05322870277336995</v>
       </c>
       <c r="C47">
-        <v>-0.006605196869968035</v>
+        <v>0.005261031040050143</v>
       </c>
       <c r="D47">
-        <v>-0.007474260906787128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01205447389161161</v>
+      </c>
+      <c r="E47">
+        <v>0.02512992565757205</v>
+      </c>
+      <c r="F47">
+        <v>-0.03014987673958228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04815751744758891</v>
+        <v>-0.05146560142214016</v>
       </c>
       <c r="C48">
-        <v>-0.005740699826719837</v>
+        <v>0.00295374806363294</v>
       </c>
       <c r="D48">
-        <v>-0.04989032934015838</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05269925986864062</v>
+      </c>
+      <c r="E48">
+        <v>-0.003743487789585732</v>
+      </c>
+      <c r="F48">
+        <v>0.01414408371999308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1996118198810463</v>
+        <v>-0.2009646379300219</v>
       </c>
       <c r="C49">
-        <v>-0.02694243939352286</v>
+        <v>0.02392741042761384</v>
       </c>
       <c r="D49">
-        <v>0.008587363313240877</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.002385655073876685</v>
+      </c>
+      <c r="E49">
+        <v>0.01990660139710821</v>
+      </c>
+      <c r="F49">
+        <v>0.05102788197342882</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04958837874937579</v>
+        <v>-0.0520634941818616</v>
       </c>
       <c r="C50">
-        <v>-0.0141397141373312</v>
+        <v>0.01260095686746824</v>
       </c>
       <c r="D50">
-        <v>-0.02414501569211014</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02656389494764711</v>
+      </c>
+      <c r="E50">
+        <v>0.02978517409053979</v>
+      </c>
+      <c r="F50">
+        <v>0.01059571914735602</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1521728902947204</v>
+        <v>-0.1456866165909605</v>
       </c>
       <c r="C52">
-        <v>-0.02311842029246357</v>
+        <v>0.02034283779061012</v>
       </c>
       <c r="D52">
-        <v>-0.04166719167747436</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04425708702079192</v>
+      </c>
+      <c r="E52">
+        <v>0.02648905769268239</v>
+      </c>
+      <c r="F52">
+        <v>0.04047409606225837</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1743942125560779</v>
+        <v>-0.167785019381551</v>
       </c>
       <c r="C53">
-        <v>-0.02548720494648778</v>
+        <v>0.02419475375571207</v>
       </c>
       <c r="D53">
-        <v>-0.005756337360966688</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.008244143131649416</v>
+      </c>
+      <c r="E53">
+        <v>0.03243068710849203</v>
+      </c>
+      <c r="F53">
+        <v>0.07441859991629904</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.014984577816604</v>
+        <v>-0.01783886276391914</v>
       </c>
       <c r="C54">
-        <v>-0.01180137217156775</v>
+        <v>0.01089807664388573</v>
       </c>
       <c r="D54">
-        <v>-0.03001856130538818</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02895028832663995</v>
+      </c>
+      <c r="E54">
+        <v>0.0208229555308819</v>
+      </c>
+      <c r="F54">
+        <v>-0.004941746139941385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1177750020500988</v>
+        <v>-0.1155119327777007</v>
       </c>
       <c r="C55">
-        <v>-0.02191740311487048</v>
+        <v>0.02092578850531446</v>
       </c>
       <c r="D55">
-        <v>-0.003863555698797681</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01120510379712098</v>
+      </c>
+      <c r="E55">
+        <v>0.03133031356764719</v>
+      </c>
+      <c r="F55">
+        <v>0.0461190393513992</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1803216962239966</v>
+        <v>-0.1748777366292948</v>
       </c>
       <c r="C56">
-        <v>-0.02350918659315967</v>
+        <v>0.02253406744391629</v>
       </c>
       <c r="D56">
-        <v>0.005323509333377102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0003131729902913327</v>
+      </c>
+      <c r="E56">
+        <v>0.03364095150788716</v>
+      </c>
+      <c r="F56">
+        <v>0.05513211668359962</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04528452951295368</v>
+        <v>-0.04468893212674511</v>
       </c>
       <c r="C58">
-        <v>-0.004601672322140718</v>
+        <v>-1.595397278267274e-05</v>
       </c>
       <c r="D58">
-        <v>-0.06725335850073612</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07690667198665845</v>
+      </c>
+      <c r="E58">
+        <v>0.03852699104824856</v>
+      </c>
+      <c r="F58">
+        <v>-0.0318670441364817</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1642637541165703</v>
+        <v>-0.1705173449273331</v>
       </c>
       <c r="C59">
-        <v>-0.02178514529843765</v>
+        <v>0.02744760592392377</v>
       </c>
       <c r="D59">
-        <v>0.2200219433572801</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2154181833641091</v>
+      </c>
+      <c r="E59">
+        <v>-0.05147985279519552</v>
+      </c>
+      <c r="F59">
+        <v>-0.04210476794593404</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2359961221750952</v>
+        <v>-0.2282898642506161</v>
       </c>
       <c r="C60">
-        <v>-0.007718325083997608</v>
+        <v>0.00340711118965175</v>
       </c>
       <c r="D60">
-        <v>-0.03916517669236616</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0400746702394579</v>
+      </c>
+      <c r="E60">
+        <v>-0.004521153926291772</v>
+      </c>
+      <c r="F60">
+        <v>0.006761162343713973</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.07820248567492674</v>
+        <v>-0.07282514708297355</v>
       </c>
       <c r="C61">
-        <v>-0.01690064436682724</v>
+        <v>0.01113302386614762</v>
       </c>
       <c r="D61">
-        <v>-0.1128092312204683</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1182509007182357</v>
+      </c>
+      <c r="E61">
+        <v>0.04408876819532036</v>
+      </c>
+      <c r="F61">
+        <v>0.009110029824887605</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1718544592232943</v>
+        <v>-0.1676414208375254</v>
       </c>
       <c r="C62">
-        <v>-0.02682918727635683</v>
+        <v>0.02482240279790099</v>
       </c>
       <c r="D62">
-        <v>-0.001910100127614056</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.009273878914724564</v>
+      </c>
+      <c r="E62">
+        <v>0.03666569967486707</v>
+      </c>
+      <c r="F62">
+        <v>0.0405625463495</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04340219366337912</v>
+        <v>-0.04743483061890527</v>
       </c>
       <c r="C63">
-        <v>-0.006190869716208664</v>
+        <v>0.003101920322220569</v>
       </c>
       <c r="D63">
-        <v>-0.05389005457833989</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06345651229934067</v>
+      </c>
+      <c r="E63">
+        <v>0.02527841905803204</v>
+      </c>
+      <c r="F63">
+        <v>0.001910147327607634</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1146419090356989</v>
+        <v>-0.1117052891265246</v>
       </c>
       <c r="C64">
-        <v>-0.01878523706244441</v>
+        <v>0.01502358455026175</v>
       </c>
       <c r="D64">
-        <v>-0.0367315389240254</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0435565605707712</v>
+      </c>
+      <c r="E64">
+        <v>0.02756672206580702</v>
+      </c>
+      <c r="F64">
+        <v>0.02720409049042089</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1481850927153527</v>
+        <v>-0.1551527488173745</v>
       </c>
       <c r="C65">
-        <v>-0.03978359893419638</v>
+        <v>0.039009956052377</v>
       </c>
       <c r="D65">
-        <v>0.04973063651966703</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03956353068929457</v>
+      </c>
+      <c r="E65">
+        <v>0.006688299287695834</v>
+      </c>
+      <c r="F65">
+        <v>0.03998292467662432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1289967694488944</v>
+        <v>-0.1158146116524925</v>
       </c>
       <c r="C66">
-        <v>-0.02178288262672069</v>
+        <v>0.0146097606749064</v>
       </c>
       <c r="D66">
-        <v>-0.1353158912962589</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1425503536653209</v>
+      </c>
+      <c r="E66">
+        <v>0.06831151848428896</v>
+      </c>
+      <c r="F66">
+        <v>0.02674409128481152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06153168311181272</v>
+        <v>-0.05455857331690112</v>
       </c>
       <c r="C67">
-        <v>-0.006807407094645391</v>
+        <v>0.004251044186499715</v>
       </c>
       <c r="D67">
-        <v>-0.05425819927819885</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05801084474930215</v>
+      </c>
+      <c r="E67">
+        <v>0.02388651097860988</v>
+      </c>
+      <c r="F67">
+        <v>-0.03453333040799528</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1129907445980474</v>
+        <v>-0.1214418326262327</v>
       </c>
       <c r="C68">
-        <v>-0.02985159989053381</v>
+        <v>0.03759267668275038</v>
       </c>
       <c r="D68">
-        <v>0.2623465917200585</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.258387532474066</v>
+      </c>
+      <c r="E68">
+        <v>-0.0853469563998049</v>
+      </c>
+      <c r="F68">
+        <v>0.001490266747009568</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03942003306523375</v>
+        <v>-0.03896781797633322</v>
       </c>
       <c r="C69">
-        <v>-0.003047184053545707</v>
+        <v>0.001974212548286112</v>
       </c>
       <c r="D69">
-        <v>-0.01061890577197473</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01116659547871103</v>
+      </c>
+      <c r="E69">
+        <v>0.02832986436985857</v>
+      </c>
+      <c r="F69">
+        <v>-0.0002852183532833294</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06878146877868546</v>
+        <v>-0.06878981148359571</v>
       </c>
       <c r="C70">
-        <v>0.02301149568488262</v>
+        <v>-0.02533825404854907</v>
       </c>
       <c r="D70">
-        <v>-0.02758653350641803</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.03154638700317407</v>
+      </c>
+      <c r="E70">
+        <v>-0.02735478177095203</v>
+      </c>
+      <c r="F70">
+        <v>-0.1870734187375907</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1313899364494671</v>
+        <v>-0.1415852548605385</v>
       </c>
       <c r="C71">
-        <v>-0.03488707222204218</v>
+        <v>0.04258888806879906</v>
       </c>
       <c r="D71">
-        <v>0.2766793644163374</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2678443312424236</v>
+      </c>
+      <c r="E71">
+        <v>-0.09684002142373073</v>
+      </c>
+      <c r="F71">
+        <v>0.006640284115379449</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1377178677719205</v>
+        <v>-0.1441347130297808</v>
       </c>
       <c r="C72">
-        <v>-0.03127494280038112</v>
+        <v>0.03097402334120401</v>
       </c>
       <c r="D72">
-        <v>-0.002717987202960725</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.000419585755211019</v>
+      </c>
+      <c r="E72">
+        <v>0.03947613053467623</v>
+      </c>
+      <c r="F72">
+        <v>0.03054303210371378</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1997993706432936</v>
+        <v>-0.2024802496787506</v>
       </c>
       <c r="C73">
-        <v>-0.02072654847744133</v>
+        <v>0.01651132135625126</v>
       </c>
       <c r="D73">
-        <v>-0.0117010355658747</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.0191403635760465</v>
+      </c>
+      <c r="E73">
+        <v>0.06260917219435938</v>
+      </c>
+      <c r="F73">
+        <v>0.04117754205490793</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08774231934313721</v>
+        <v>-0.0887918580538727</v>
       </c>
       <c r="C74">
-        <v>-0.01516778048841108</v>
+        <v>0.01408424035362557</v>
       </c>
       <c r="D74">
-        <v>-0.0128758279549993</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01671511406943105</v>
+      </c>
+      <c r="E74">
+        <v>0.04464397568231528</v>
+      </c>
+      <c r="F74">
+        <v>0.05099509251051364</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1318193387597059</v>
+        <v>-0.1240592500312364</v>
       </c>
       <c r="C75">
-        <v>-0.03376603540838249</v>
+        <v>0.03120894305457049</v>
       </c>
       <c r="D75">
-        <v>-0.02500926485773552</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03173100520881369</v>
+      </c>
+      <c r="E75">
+        <v>0.05915858487801488</v>
+      </c>
+      <c r="F75">
+        <v>0.02138698695000983</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08098527900281854</v>
+        <v>-0.09220227824927546</v>
       </c>
       <c r="C77">
-        <v>-0.01536876355079786</v>
+        <v>0.01009961083231939</v>
       </c>
       <c r="D77">
-        <v>-0.1178680615366757</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1204403317984506</v>
+      </c>
+      <c r="E77">
+        <v>0.04469274997870878</v>
+      </c>
+      <c r="F77">
+        <v>0.03494528667846528</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09858555495827723</v>
+        <v>-0.09932416807498998</v>
       </c>
       <c r="C78">
-        <v>-0.045865476051731</v>
+        <v>0.04131830203630938</v>
       </c>
       <c r="D78">
-        <v>-0.1154993715650438</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1129426959720603</v>
+      </c>
+      <c r="E78">
+        <v>0.0719848377824653</v>
+      </c>
+      <c r="F78">
+        <v>0.05333390760630966</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1695747389875201</v>
+        <v>-0.1649233526992694</v>
       </c>
       <c r="C79">
-        <v>-0.03047148509677422</v>
+        <v>0.02820243374628143</v>
       </c>
       <c r="D79">
-        <v>-0.01076835806509001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01758117207564487</v>
+      </c>
+      <c r="E79">
+        <v>0.04843473923318191</v>
+      </c>
+      <c r="F79">
+        <v>0.01390260681844583</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07952895652656278</v>
+        <v>-0.07845117731906467</v>
       </c>
       <c r="C80">
-        <v>-0.003622604540628621</v>
+        <v>0.0008712602398708689</v>
       </c>
       <c r="D80">
-        <v>-0.05161946963808532</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05132279155092558</v>
+      </c>
+      <c r="E80">
+        <v>0.03789563636062829</v>
+      </c>
+      <c r="F80">
+        <v>-0.03124917205652264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1182958090251857</v>
+        <v>-0.1130630622457429</v>
       </c>
       <c r="C81">
-        <v>-0.03535029361259291</v>
+        <v>0.03405918388614542</v>
       </c>
       <c r="D81">
-        <v>-0.006299149599363872</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01204733684044569</v>
+      </c>
+      <c r="E81">
+        <v>0.05385605538411357</v>
+      </c>
+      <c r="F81">
+        <v>0.0172314391496202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1637118746254589</v>
+        <v>-0.1621988596323081</v>
       </c>
       <c r="C82">
-        <v>-0.02959693072464677</v>
+        <v>0.02905795800104165</v>
       </c>
       <c r="D82">
-        <v>-0.005550889708610452</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004096018280499148</v>
+      </c>
+      <c r="E82">
+        <v>0.02899891951214095</v>
+      </c>
+      <c r="F82">
+        <v>0.08213691986759435</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05872668309541652</v>
+        <v>-0.05327123627282922</v>
       </c>
       <c r="C83">
-        <v>-0.005855905796522629</v>
+        <v>0.003581843575051061</v>
       </c>
       <c r="D83">
-        <v>-0.03830571341282891</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04045426922969511</v>
+      </c>
+      <c r="E83">
+        <v>-0.004683415017381467</v>
+      </c>
+      <c r="F83">
+        <v>-0.0352962433830204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05959392899038706</v>
+        <v>-0.05507441174096647</v>
       </c>
       <c r="C84">
-        <v>-0.01415311853058711</v>
+        <v>0.01108022524826203</v>
       </c>
       <c r="D84">
-        <v>-0.07693384724663416</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07819518999625943</v>
+      </c>
+      <c r="E84">
+        <v>0.01373560576330787</v>
+      </c>
+      <c r="F84">
+        <v>0.01655216424802875</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1397087390749616</v>
+        <v>-0.1346535949344866</v>
       </c>
       <c r="C85">
-        <v>-0.03341140381684734</v>
+        <v>0.03202184147399611</v>
       </c>
       <c r="D85">
-        <v>-0.007683798877452689</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01122218187981094</v>
+      </c>
+      <c r="E85">
+        <v>0.04159007780415122</v>
+      </c>
+      <c r="F85">
+        <v>0.04880598696957214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1004615078327846</v>
+        <v>-0.09285624100839979</v>
       </c>
       <c r="C86">
-        <v>0.0009599667654702004</v>
+        <v>-0.004729325670685592</v>
       </c>
       <c r="D86">
-        <v>-0.02232391299554296</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05769171628740186</v>
+      </c>
+      <c r="E86">
+        <v>0.2135173570820291</v>
+      </c>
+      <c r="F86">
+        <v>-0.8975872362551098</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09524230618310184</v>
+        <v>-0.09173830544689472</v>
       </c>
       <c r="C87">
-        <v>-0.02991459631685109</v>
+        <v>0.02171760516291623</v>
       </c>
       <c r="D87">
-        <v>-0.07279162571019229</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09028146566627691</v>
+      </c>
+      <c r="E87">
+        <v>-0.06442095778035631</v>
+      </c>
+      <c r="F87">
+        <v>0.05088071006357539</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06258077015567921</v>
+        <v>-0.06128333881502532</v>
       </c>
       <c r="C88">
-        <v>-0.006741138536977997</v>
+        <v>0.003684193984454917</v>
       </c>
       <c r="D88">
-        <v>-0.05072376260835108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.05113818694611239</v>
+      </c>
+      <c r="E88">
+        <v>0.02764850361223233</v>
+      </c>
+      <c r="F88">
+        <v>0.01433188463235136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.122975670639049</v>
+        <v>-0.1310549276262591</v>
       </c>
       <c r="C89">
-        <v>-0.01042949846605867</v>
+        <v>0.01767470893104951</v>
       </c>
       <c r="D89">
-        <v>0.2379612926049843</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2404168999074126</v>
+      </c>
+      <c r="E89">
+        <v>-0.08639008156764122</v>
+      </c>
+      <c r="F89">
+        <v>-0.007596530997389014</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1423333658031705</v>
+        <v>-0.156366655186977</v>
       </c>
       <c r="C90">
-        <v>-0.03088211750571822</v>
+        <v>0.03935451088326571</v>
       </c>
       <c r="D90">
-        <v>0.2629268396197716</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2656531382981307</v>
+      </c>
+      <c r="E90">
+        <v>-0.116041295909084</v>
+      </c>
+      <c r="F90">
+        <v>-0.007502182134801264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.124278378854301</v>
+        <v>-0.1209672860932123</v>
       </c>
       <c r="C91">
-        <v>-0.02435267162350308</v>
+        <v>0.02364812227312283</v>
       </c>
       <c r="D91">
-        <v>0.01868106418179725</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0135629307415267</v>
+      </c>
+      <c r="E91">
+        <v>0.05677865838637768</v>
+      </c>
+      <c r="F91">
+        <v>-0.002922260178511352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1436496184165031</v>
+        <v>-0.1497387014209802</v>
       </c>
       <c r="C92">
-        <v>-0.02193441640019594</v>
+        <v>0.03043733547847335</v>
       </c>
       <c r="D92">
-        <v>0.2913335547918016</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2903935227471478</v>
+      </c>
+      <c r="E92">
+        <v>-0.1029151426581214</v>
+      </c>
+      <c r="F92">
+        <v>-0.02236979493502752</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1474005355746362</v>
+        <v>-0.1592836647734025</v>
       </c>
       <c r="C93">
-        <v>-0.02751925509379456</v>
+        <v>0.03458448519312216</v>
       </c>
       <c r="D93">
-        <v>0.2597707915208806</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2587533885194934</v>
+      </c>
+      <c r="E93">
+        <v>-0.07197870615358801</v>
+      </c>
+      <c r="F93">
+        <v>0.004842775796250672</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1311255286612893</v>
+        <v>-0.123599651065545</v>
       </c>
       <c r="C94">
-        <v>-0.02999609270676301</v>
+        <v>0.02684043290431049</v>
       </c>
       <c r="D94">
-        <v>-0.04063342380382796</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04471422599416009</v>
+      </c>
+      <c r="E94">
+        <v>0.05909009141243519</v>
+      </c>
+      <c r="F94">
+        <v>0.03183689888669752</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.126540741450384</v>
+        <v>-0.128432517475909</v>
       </c>
       <c r="C95">
-        <v>-0.01217901624173059</v>
+        <v>0.006656465070303588</v>
       </c>
       <c r="D95">
-        <v>-0.0898148986153149</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.10083894039998</v>
+      </c>
+      <c r="E95">
+        <v>0.06128038481841627</v>
+      </c>
+      <c r="F95">
+        <v>0.003525131462802642</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1462477969402863</v>
+        <v>-0.1349486179873896</v>
       </c>
       <c r="C96">
-        <v>0.9834683652270139</v>
+        <v>-0.9839495349968663</v>
       </c>
       <c r="D96">
-        <v>0.02539159318636426</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05467761780115347</v>
+      </c>
+      <c r="E96">
+        <v>0.0500122779551418</v>
+      </c>
+      <c r="F96">
+        <v>0.04169913903395531</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1898388738317738</v>
+        <v>-0.1931821829804515</v>
       </c>
       <c r="C97">
-        <v>-0.0005557672030339061</v>
+        <v>-0.0005961454895818236</v>
       </c>
       <c r="D97">
-        <v>0.02527080234239196</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02786797918475543</v>
+      </c>
+      <c r="E97">
+        <v>0.02693800028170952</v>
+      </c>
+      <c r="F97">
+        <v>-0.1113917313641547</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1966143201215419</v>
+        <v>-0.2029184675871095</v>
       </c>
       <c r="C98">
-        <v>-0.01530095662451713</v>
+        <v>0.01074688604037005</v>
       </c>
       <c r="D98">
-        <v>-0.008690094419298067</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01120853114594821</v>
+      </c>
+      <c r="E98">
+        <v>-0.07435583856657908</v>
+      </c>
+      <c r="F98">
+        <v>-0.1004604193045946</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05638966449329873</v>
+        <v>-0.05597523046114965</v>
       </c>
       <c r="C99">
-        <v>0.001038128266749297</v>
+        <v>-0.003100448034490162</v>
       </c>
       <c r="D99">
-        <v>-0.03793284521663914</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04305296321564788</v>
+      </c>
+      <c r="E99">
+        <v>0.02423987019074568</v>
+      </c>
+      <c r="F99">
+        <v>0.003722655556121924</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1450503069785813</v>
+        <v>-0.1316381057767206</v>
       </c>
       <c r="C100">
-        <v>0.03585390212978871</v>
+        <v>-0.0480538459409036</v>
       </c>
       <c r="D100">
-        <v>-0.3967574861989547</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3591008716083863</v>
+      </c>
+      <c r="E100">
+        <v>-0.8839440920872546</v>
+      </c>
+      <c r="F100">
+        <v>-0.1390338455015843</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02545221002169456</v>
+        <v>-0.02792740656699407</v>
       </c>
       <c r="C101">
-        <v>-0.009701672882248881</v>
+        <v>0.009035192985004097</v>
       </c>
       <c r="D101">
-        <v>-0.02964779516334379</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02993415796937905</v>
+      </c>
+      <c r="E101">
+        <v>0.01699773233943419</v>
+      </c>
+      <c r="F101">
+        <v>-0.0162449785660249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
